--- a/LGC_Motiv_results/study1/nutrition/FFQ_metabolites_extracted_results.xlsx
+++ b/LGC_Motiv_results/study1/nutrition/FFQ_metabolites_extracted_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1085">
   <si>
     <t>CID</t>
   </si>
@@ -658,6 +658,1959 @@
   </si>
   <si>
     <t>GFPS_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>GKB_pain__BE__PerWeek</t>
+  </si>
+  <si>
+    <t>GMKO_sel__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>calories_kcalPerWeek</t>
+  </si>
+  <si>
+    <t>GJEnergie_kJ_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>GCALZBEnergie_kcalAvecFibres_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>GJZBEnergie_kJAvecFibres_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ZW_eau__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>proteins_mgPerWeek</t>
+  </si>
+  <si>
+    <t>fat_mgPerWeek</t>
+  </si>
+  <si>
+    <t>glucids_mgPerWeek</t>
+  </si>
+  <si>
+    <t>ZB_fibres__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ZM_min_raux__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ZO_acidesOrganiques__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ZA_alcool__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VA_vitamineA_quivalentsR_tinol___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VAR_vitamineAR_tinol___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VAC_vitamineABeta_carot_nes___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VD_vitamineD___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VE_vitamineE_quivalentsTocoph_rol___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VEAT_VitamineE_AlphaTocoph_rol___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VK_VitamineK_Phylloquinone___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VB1_VitamineB1_Thiamine___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VB2_VitamineB2_Riboflavine___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>NA_ugPerWeek</t>
+  </si>
+  <si>
+    <t>NE_ugPerWeek</t>
+  </si>
+  <si>
+    <t>VB5__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VB6__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VB7__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FolicAcid_mgPerWeek</t>
+  </si>
+  <si>
+    <t>VB12__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VC_vitamineC___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MNA_sodium__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MK_potassium__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MCA_calcium__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Mg_mgPerWeek</t>
+  </si>
+  <si>
+    <t>MP_phosphore__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MS_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MCL_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MFE_fer___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MZN__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MCU_cuivre___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MMN__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MF__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MJ__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KAM_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KAS_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KAX_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KA_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Glc_mgPerWeek</t>
+  </si>
+  <si>
+    <t>KMF_fructose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KMG_galactose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KM_monosaccharides__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KDS_saccharose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KDM_maltose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Lactose_mgPerWeek</t>
+  </si>
+  <si>
+    <t>KD_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>sugars_mgPerWeek</t>
+  </si>
+  <si>
+    <t>KPOR_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KPON_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KPG_glycog_ne_amidonAnimal___mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KPS_amidon__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KP_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBP_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBH_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBU_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBC_cellulose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBL_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBW_fibresSolublesDansL_eau__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBN_fibresInsolublesDansL_eau__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EILE_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ELEU_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ELYS_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EMET_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Cys_mgPerWeek</t>
+  </si>
+  <si>
+    <t>EPHE_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ETYR_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ETHR_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Trp_mgPerWeek</t>
+  </si>
+  <si>
+    <t>EVAL_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EARG_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EHIS_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EEA_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EALA_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Asp_mgPerWeek</t>
+  </si>
+  <si>
+    <t>Glu_mgPerWeek</t>
+  </si>
+  <si>
+    <t>Gly_mgPerWeek</t>
+  </si>
+  <si>
+    <t>EPRO_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ESER_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ENA_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EH_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EP_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F40_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F60_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F80_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F100_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F120_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F140_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F150_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F160_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F170_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F180_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F200_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F220_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F240_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FS_acidesGrasSatur_s__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F141_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F151_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F161_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F171_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F181_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F201_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F221_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F241_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FU_acidesGrasMonoinsatur_s__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F162_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F164_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F182_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F183_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F184_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F193_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F202_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F203_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F204_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F205_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F222_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F223_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F224_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F225_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F226_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FP_acidesGrasPolyinsatur_s__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FK_acidesGras_Cha_neCourte__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FM_acidesGras_Cha_neMoyenne__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FL_acidesGras_Cha_neLongue__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>omega3_mgPerWeek</t>
+  </si>
+  <si>
+    <t>FO6_omega6__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FG_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FC_Chol_st_rol__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>GFPSPolyins_saturatedFattyAcidsRatio_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>GKB_pain__BE__PerWeek</t>
+  </si>
+  <si>
+    <t>GMKO_sel__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>calories_kcalPerWeek</t>
+  </si>
+  <si>
+    <t>GJEnergie_kJ_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>GCALZBEnergie_kcalAvecFibres_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>GJZBEnergie_kJAvecFibres_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ZW_eau__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>proteins_mgPerWeek</t>
+  </si>
+  <si>
+    <t>fat_mgPerWeek</t>
+  </si>
+  <si>
+    <t>glucids_mgPerWeek</t>
+  </si>
+  <si>
+    <t>ZB_fibres__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ZM_min_raux__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ZO_acidesOrganiques__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ZA_alcool__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VA_vitamineA_quivalentsR_tinol___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VAR_vitamineAR_tinol___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VAC_vitamineABeta_carot_nes___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VD_vitamineD___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VE_vitamineE_quivalentsTocoph_rol___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VEAT_VitamineE_AlphaTocoph_rol___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VK_VitamineK_Phylloquinone___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VB1_VitamineB1_Thiamine___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VB2_VitamineB2_Riboflavine___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>NA_ugPerWeek</t>
+  </si>
+  <si>
+    <t>NE_ugPerWeek</t>
+  </si>
+  <si>
+    <t>VB5__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VB6__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VB7__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FolicAcid_mgPerWeek</t>
+  </si>
+  <si>
+    <t>VB12__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VC_vitamineC___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MNA_sodium__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MK_potassium__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MCA_calcium__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Mg_mgPerWeek</t>
+  </si>
+  <si>
+    <t>MP_phosphore__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MS_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MCL_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MFE_fer___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MZN__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MCU_cuivre___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MMN__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MF__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MJ__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KAM_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KAS_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KAX_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KA_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Glc_mgPerWeek</t>
+  </si>
+  <si>
+    <t>KMF_fructose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KMG_galactose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KM_monosaccharides__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KDS_saccharose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KDM_maltose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Lactose_mgPerWeek</t>
+  </si>
+  <si>
+    <t>KD_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>sugars_mgPerWeek</t>
+  </si>
+  <si>
+    <t>KPOR_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KPON_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KPG_glycog_ne_amidonAnimal___mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KPS_amidon__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KP_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBP_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBH_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBU_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBC_cellulose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBL_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBW_fibresSolublesDansL_eau__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBN_fibresInsolublesDansL_eau__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EILE_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ELEU_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ELYS_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EMET_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Cys_mgPerWeek</t>
+  </si>
+  <si>
+    <t>EPHE_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ETYR_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ETHR_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Trp_mgPerWeek</t>
+  </si>
+  <si>
+    <t>EVAL_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EARG_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EHIS_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EEA_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EALA_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Asp_mgPerWeek</t>
+  </si>
+  <si>
+    <t>Glu_mgPerWeek</t>
+  </si>
+  <si>
+    <t>Gly_mgPerWeek</t>
+  </si>
+  <si>
+    <t>EPRO_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ESER_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ENA_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EH_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EP_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F40_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F60_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F80_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F100_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F120_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F140_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F150_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F160_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F170_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F180_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F200_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F220_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F240_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FS_acidesGrasSatur_s__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F141_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F151_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F161_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F171_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F181_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F201_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F221_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F241_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FU_acidesGrasMonoinsatur_s__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F162_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F164_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F182_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F183_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F184_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F193_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F202_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F203_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F204_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F205_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F222_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F223_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F224_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F225_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F226_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FP_acidesGrasPolyinsatur_s__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FK_acidesGras_Cha_neCourte__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FM_acidesGras_Cha_neMoyenne__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FL_acidesGras_Cha_neLongue__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>omega3_mgPerWeek</t>
+  </si>
+  <si>
+    <t>FO6_omega6__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FG_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FC_Chol_st_rol__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>GFPSPolyins_saturatedFattyAcidsRatio_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>GKB_pain__BE__PerWeek</t>
+  </si>
+  <si>
+    <t>GMKO_sel__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>calories_kcalPerWeek</t>
+  </si>
+  <si>
+    <t>GJEnergie_kJ_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>GCALZBEnergie_kcalAvecFibres_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>GJZBEnergie_kJAvecFibres_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ZW_eau__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>proteins_mgPerWeek</t>
+  </si>
+  <si>
+    <t>fat_mgPerWeek</t>
+  </si>
+  <si>
+    <t>glucids_mgPerWeek</t>
+  </si>
+  <si>
+    <t>ZB_fibres__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ZM_min_raux__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ZO_acidesOrganiques__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ZA_alcool__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VA_vitamineA_quivalentsR_tinol___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VAR_vitamineAR_tinol___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VAC_vitamineABeta_carot_nes___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VD_vitamineD___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VE_vitamineE_quivalentsTocoph_rol___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VEAT_VitamineE_AlphaTocoph_rol___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VK_VitamineK_Phylloquinone___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VB1_VitamineB1_Thiamine___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VB2_VitamineB2_Riboflavine___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>NA_ugPerWeek</t>
+  </si>
+  <si>
+    <t>NE_ugPerWeek</t>
+  </si>
+  <si>
+    <t>VB5__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VB6__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VB7__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FolicAcid_mgPerWeek</t>
+  </si>
+  <si>
+    <t>VB12__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>VC_vitamineC___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MNA_sodium__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MK_potassium__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MCA_calcium__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Mg_mgPerWeek</t>
+  </si>
+  <si>
+    <t>MP_phosphore__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MS_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MCL_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MFE_fer___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MZN__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MCU_cuivre___g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MMN__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MF__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>MJ__g_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KAM_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KAS_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KAX_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KA_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Glc_mgPerWeek</t>
+  </si>
+  <si>
+    <t>KMF_fructose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KMG_galactose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KM_monosaccharides__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KDS_saccharose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KDM_maltose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Lactose_mgPerWeek</t>
+  </si>
+  <si>
+    <t>KD_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>sugars_mgPerWeek</t>
+  </si>
+  <si>
+    <t>KPOR_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KPON_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KPG_glycog_ne_amidonAnimal___mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KPS_amidon__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KP_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBP_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBH_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBU_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBC_cellulose__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBL_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBW_fibresSolublesDansL_eau__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>KBN_fibresInsolublesDansL_eau__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EILE_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ELEU_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ELYS_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EMET_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Cys_mgPerWeek</t>
+  </si>
+  <si>
+    <t>EPHE_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ETYR_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ETHR_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Trp_mgPerWeek</t>
+  </si>
+  <si>
+    <t>EVAL_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EARG_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EHIS_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EEA_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EALA_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>Asp_mgPerWeek</t>
+  </si>
+  <si>
+    <t>Glu_mgPerWeek</t>
+  </si>
+  <si>
+    <t>Gly_mgPerWeek</t>
+  </si>
+  <si>
+    <t>EPRO_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ESER_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>ENA_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EH_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>EP_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F40_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F60_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F80_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F100_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F120_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F140_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F150_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F160_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F170_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F180_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F200_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F220_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F240_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FS_acidesGrasSatur_s__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F141_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F151_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F161_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F171_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F181_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F201_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F221_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F241_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FU_acidesGrasMonoinsatur_s__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F162_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F164_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F182_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F183_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F184_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F193_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F202_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F203_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F204_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F205_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F222_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F223_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F224_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F225_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>F226_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FP_acidesGrasPolyinsatur_s__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FK_acidesGras_Cha_neCourte__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FM_acidesGras_Cha_neMoyenne__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FL_acidesGras_Cha_neLongue__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>omega3_mgPerWeek</t>
+  </si>
+  <si>
+    <t>FO6_omega6__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FG_mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>FC_Chol_st_rol__mg_portion__PerWeek</t>
+  </si>
+  <si>
+    <t>GFPSPolyins_saturatedFattyAcidsRatio_mg_portion__PerWeek</t>
   </si>
   <si>
     <t>GKB_pain__BE__PerWeek</t>
@@ -1506,426 +3459,426 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>217</v>
+        <v>868</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>296</v>
+        <v>947</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>297</v>
+        <v>948</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>298</v>
+        <v>949</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>299</v>
+        <v>950</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>300</v>
+        <v>951</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>301</v>
+        <v>952</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>302</v>
+        <v>953</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>303</v>
+        <v>954</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>304</v>
+        <v>955</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>305</v>
+        <v>956</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>306</v>
+        <v>957</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>307</v>
+        <v>958</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>308</v>
+        <v>959</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>309</v>
+        <v>960</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>310</v>
+        <v>961</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>311</v>
+        <v>962</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>312</v>
+        <v>963</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>313</v>
+        <v>964</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>314</v>
+        <v>965</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>315</v>
+        <v>966</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>316</v>
+        <v>967</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>317</v>
+        <v>968</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>318</v>
+        <v>969</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>319</v>
+        <v>970</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>320</v>
+        <v>971</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>321</v>
+        <v>972</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>322</v>
+        <v>973</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>323</v>
+        <v>974</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>324</v>
+        <v>975</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>325</v>
+        <v>976</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>326</v>
+        <v>977</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>327</v>
+        <v>978</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>328</v>
+        <v>979</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>329</v>
+        <v>980</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>330</v>
+        <v>981</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>331</v>
+        <v>982</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>332</v>
+        <v>983</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>333</v>
+        <v>984</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>334</v>
+        <v>985</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>335</v>
+        <v>986</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>336</v>
+        <v>987</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>337</v>
+        <v>988</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>338</v>
+        <v>989</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>339</v>
+        <v>990</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>340</v>
+        <v>991</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>341</v>
+        <v>992</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>342</v>
+        <v>993</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>343</v>
+        <v>994</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>344</v>
+        <v>995</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>345</v>
+        <v>996</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>346</v>
+        <v>997</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>347</v>
+        <v>998</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>348</v>
+        <v>999</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>349</v>
+        <v>1000</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>350</v>
+        <v>1001</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>351</v>
+        <v>1002</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>352</v>
+        <v>1003</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>353</v>
+        <v>1004</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>354</v>
+        <v>1005</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>355</v>
+        <v>1006</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>356</v>
+        <v>1007</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>357</v>
+        <v>1008</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>358</v>
+        <v>1009</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>359</v>
+        <v>1010</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>360</v>
+        <v>1011</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>361</v>
+        <v>1012</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>362</v>
+        <v>1013</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>363</v>
+        <v>1014</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>364</v>
+        <v>1015</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>365</v>
+        <v>1016</v>
       </c>
       <c r="BT1" s="0" t="s">
-        <v>366</v>
+        <v>1017</v>
       </c>
       <c r="BU1" s="0" t="s">
-        <v>367</v>
+        <v>1018</v>
       </c>
       <c r="BV1" s="0" t="s">
-        <v>368</v>
+        <v>1019</v>
       </c>
       <c r="BW1" s="0" t="s">
-        <v>369</v>
+        <v>1020</v>
       </c>
       <c r="BX1" s="0" t="s">
-        <v>370</v>
+        <v>1021</v>
       </c>
       <c r="BY1" s="0" t="s">
-        <v>371</v>
+        <v>1022</v>
       </c>
       <c r="BZ1" s="0" t="s">
-        <v>372</v>
+        <v>1023</v>
       </c>
       <c r="CA1" s="0" t="s">
-        <v>373</v>
+        <v>1024</v>
       </c>
       <c r="CB1" s="0" t="s">
-        <v>374</v>
+        <v>1025</v>
       </c>
       <c r="CC1" s="0" t="s">
-        <v>375</v>
+        <v>1026</v>
       </c>
       <c r="CD1" s="0" t="s">
-        <v>376</v>
+        <v>1027</v>
       </c>
       <c r="CE1" s="0" t="s">
-        <v>377</v>
+        <v>1028</v>
       </c>
       <c r="CF1" s="0" t="s">
-        <v>378</v>
+        <v>1029</v>
       </c>
       <c r="CG1" s="0" t="s">
-        <v>379</v>
+        <v>1030</v>
       </c>
       <c r="CH1" s="0" t="s">
-        <v>380</v>
+        <v>1031</v>
       </c>
       <c r="CI1" s="0" t="s">
-        <v>381</v>
+        <v>1032</v>
       </c>
       <c r="CJ1" s="0" t="s">
-        <v>382</v>
+        <v>1033</v>
       </c>
       <c r="CK1" s="0" t="s">
-        <v>383</v>
+        <v>1034</v>
       </c>
       <c r="CL1" s="0" t="s">
-        <v>384</v>
+        <v>1035</v>
       </c>
       <c r="CM1" s="0" t="s">
-        <v>385</v>
+        <v>1036</v>
       </c>
       <c r="CN1" s="0" t="s">
-        <v>386</v>
+        <v>1037</v>
       </c>
       <c r="CO1" s="0" t="s">
-        <v>387</v>
+        <v>1038</v>
       </c>
       <c r="CP1" s="0" t="s">
-        <v>388</v>
+        <v>1039</v>
       </c>
       <c r="CQ1" s="0" t="s">
-        <v>389</v>
+        <v>1040</v>
       </c>
       <c r="CR1" s="0" t="s">
-        <v>390</v>
+        <v>1041</v>
       </c>
       <c r="CS1" s="0" t="s">
-        <v>391</v>
+        <v>1042</v>
       </c>
       <c r="CT1" s="0" t="s">
-        <v>392</v>
+        <v>1043</v>
       </c>
       <c r="CU1" s="0" t="s">
-        <v>393</v>
+        <v>1044</v>
       </c>
       <c r="CV1" s="0" t="s">
-        <v>394</v>
+        <v>1045</v>
       </c>
       <c r="CW1" s="0" t="s">
-        <v>395</v>
+        <v>1046</v>
       </c>
       <c r="CX1" s="0" t="s">
-        <v>396</v>
+        <v>1047</v>
       </c>
       <c r="CY1" s="0" t="s">
-        <v>397</v>
+        <v>1048</v>
       </c>
       <c r="CZ1" s="0" t="s">
-        <v>398</v>
+        <v>1049</v>
       </c>
       <c r="DA1" s="0" t="s">
-        <v>399</v>
+        <v>1050</v>
       </c>
       <c r="DB1" s="0" t="s">
-        <v>400</v>
+        <v>1051</v>
       </c>
       <c r="DC1" s="0" t="s">
-        <v>401</v>
+        <v>1052</v>
       </c>
       <c r="DD1" s="0" t="s">
-        <v>402</v>
+        <v>1053</v>
       </c>
       <c r="DE1" s="0" t="s">
-        <v>403</v>
+        <v>1054</v>
       </c>
       <c r="DF1" s="0" t="s">
-        <v>404</v>
+        <v>1055</v>
       </c>
       <c r="DG1" s="0" t="s">
-        <v>405</v>
+        <v>1056</v>
       </c>
       <c r="DH1" s="0" t="s">
-        <v>406</v>
+        <v>1057</v>
       </c>
       <c r="DI1" s="0" t="s">
-        <v>407</v>
+        <v>1058</v>
       </c>
       <c r="DJ1" s="0" t="s">
-        <v>408</v>
+        <v>1059</v>
       </c>
       <c r="DK1" s="0" t="s">
-        <v>409</v>
+        <v>1060</v>
       </c>
       <c r="DL1" s="0" t="s">
-        <v>410</v>
+        <v>1061</v>
       </c>
       <c r="DM1" s="0" t="s">
-        <v>411</v>
+        <v>1062</v>
       </c>
       <c r="DN1" s="0" t="s">
-        <v>412</v>
+        <v>1063</v>
       </c>
       <c r="DO1" s="0" t="s">
-        <v>413</v>
+        <v>1064</v>
       </c>
       <c r="DP1" s="0" t="s">
-        <v>414</v>
+        <v>1065</v>
       </c>
       <c r="DQ1" s="0" t="s">
-        <v>415</v>
+        <v>1066</v>
       </c>
       <c r="DR1" s="0" t="s">
-        <v>416</v>
+        <v>1067</v>
       </c>
       <c r="DS1" s="0" t="s">
-        <v>417</v>
+        <v>1068</v>
       </c>
       <c r="DT1" s="0" t="s">
-        <v>418</v>
+        <v>1069</v>
       </c>
       <c r="DU1" s="0" t="s">
-        <v>419</v>
+        <v>1070</v>
       </c>
       <c r="DV1" s="0" t="s">
-        <v>420</v>
+        <v>1071</v>
       </c>
       <c r="DW1" s="0" t="s">
-        <v>421</v>
+        <v>1072</v>
       </c>
       <c r="DX1" s="0" t="s">
-        <v>422</v>
+        <v>1073</v>
       </c>
       <c r="DY1" s="0" t="s">
-        <v>423</v>
+        <v>1074</v>
       </c>
       <c r="DZ1" s="0" t="s">
-        <v>424</v>
+        <v>1075</v>
       </c>
       <c r="EA1" s="0" t="s">
-        <v>425</v>
+        <v>1076</v>
       </c>
       <c r="EB1" s="0" t="s">
-        <v>426</v>
+        <v>1077</v>
       </c>
       <c r="EC1" s="0" t="s">
-        <v>427</v>
+        <v>1078</v>
       </c>
       <c r="ED1" s="0" t="s">
-        <v>428</v>
+        <v>1079</v>
       </c>
       <c r="EE1" s="0" t="s">
-        <v>429</v>
+        <v>1080</v>
       </c>
       <c r="EF1" s="0" t="s">
-        <v>430</v>
+        <v>1081</v>
       </c>
       <c r="EG1" s="0" t="s">
-        <v>431</v>
+        <v>1082</v>
       </c>
       <c r="EH1" s="0" t="s">
-        <v>432</v>
+        <v>1083</v>
       </c>
       <c r="EI1" s="0" t="s">
-        <v>433</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>218</v>
+        <v>869</v>
       </c>
       <c r="B2" s="0">
         <v>13249.109186046509</v>
@@ -2008,7 +3961,9 @@
       <c r="AB2" s="0">
         <v>3053.4912790697672</v>
       </c>
-      <c r="AC2" s="0"/>
+      <c r="AC2" s="0">
+        <v>33542.536279069769</v>
+      </c>
       <c r="AD2" s="0">
         <v>948853.53255813965</v>
       </c>
@@ -2342,7 +4297,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>219</v>
+        <v>870</v>
       </c>
       <c r="B3" s="0">
         <v>14303.923488372093</v>
@@ -2425,7 +4380,9 @@
       <c r="AB3" s="0">
         <v>1962.0360465116282</v>
       </c>
-      <c r="AC3" s="0"/>
+      <c r="AC3" s="0">
+        <v>414467.92825581395</v>
+      </c>
       <c r="AD3" s="0">
         <v>579950.58255813946</v>
       </c>
@@ -2759,7 +4716,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>220</v>
+        <v>871</v>
       </c>
       <c r="B4" s="0">
         <v>7001.4118604651158</v>
@@ -2842,7 +4799,9 @@
       <c r="AB4" s="0">
         <v>1497.9779069767444</v>
       </c>
-      <c r="AC4" s="0"/>
+      <c r="AC4" s="0">
+        <v>130976.09476744186</v>
+      </c>
       <c r="AD4" s="0">
         <v>651488.15581395349</v>
       </c>
@@ -3176,7 +5135,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>221</v>
+        <v>872</v>
       </c>
       <c r="B5" s="0">
         <v>8573.6013953488382</v>
@@ -3259,7 +5218,9 @@
       <c r="AB5" s="0">
         <v>2207.3546511627906</v>
       </c>
-      <c r="AC5" s="0"/>
+      <c r="AC5" s="0">
+        <v>55966.613023255813</v>
+      </c>
       <c r="AD5" s="0">
         <v>803713.46860465116</v>
       </c>
@@ -3593,7 +5554,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>222</v>
+        <v>873</v>
       </c>
       <c r="B6" s="0">
         <v>11897.4488372093</v>
@@ -3676,7 +5637,9 @@
       <c r="AB6" s="0">
         <v>2325.6761627906976</v>
       </c>
-      <c r="AC6" s="0"/>
+      <c r="AC6" s="0">
+        <v>327058.78895348829</v>
+      </c>
       <c r="AD6" s="0">
         <v>686095.89883720945</v>
       </c>
@@ -4010,7 +5973,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>223</v>
+        <v>874</v>
       </c>
       <c r="B7" s="0">
         <v>10070.037674418603</v>
@@ -4093,7 +6056,9 @@
       <c r="AB7" s="0">
         <v>981.41162790697672</v>
       </c>
-      <c r="AC7" s="0"/>
+      <c r="AC7" s="0">
+        <v>213350.24941860462</v>
+      </c>
       <c r="AD7" s="0">
         <v>384821.46744186047</v>
       </c>
@@ -4427,7 +6392,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>224</v>
+        <v>875</v>
       </c>
       <c r="B8" s="0">
         <v>12103.040697674416</v>
@@ -4510,7 +6475,9 @@
       <c r="AB8" s="0">
         <v>1764.7918604651159</v>
       </c>
-      <c r="AC8" s="0"/>
+      <c r="AC8" s="0">
+        <v>183798.0108139535</v>
+      </c>
       <c r="AD8" s="0">
         <v>389510.90116279072</v>
       </c>
@@ -4844,7 +6811,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>225</v>
+        <v>876</v>
       </c>
       <c r="B9" s="0">
         <v>9945.0572093023238</v>
@@ -4927,7 +6894,9 @@
       <c r="AB9" s="0">
         <v>1401.6453488372094</v>
       </c>
-      <c r="AC9" s="0"/>
+      <c r="AC9" s="0">
+        <v>172285.95616279074</v>
+      </c>
       <c r="AD9" s="0">
         <v>963459.27441860456</v>
       </c>
@@ -5261,7 +7230,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>226</v>
+        <v>877</v>
       </c>
       <c r="B10" s="0">
         <v>12577.474186046513</v>
@@ -5344,7 +7313,9 @@
       <c r="AB10" s="0">
         <v>4409.0046511627907</v>
       </c>
-      <c r="AC10" s="0"/>
+      <c r="AC10" s="0">
+        <v>577010.71255813958</v>
+      </c>
       <c r="AD10" s="0">
         <v>2146303.9918604651</v>
       </c>
@@ -5678,7 +7649,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>227</v>
+        <v>878</v>
       </c>
       <c r="B11" s="0">
         <v>15780.671395348838</v>
@@ -5761,7 +7732,9 @@
       <c r="AB11" s="0">
         <v>1904.2255813953486</v>
       </c>
-      <c r="AC11" s="0"/>
+      <c r="AC11" s="0">
+        <v>429498.33790697675</v>
+      </c>
       <c r="AD11" s="0">
         <v>1204042.6325581395</v>
       </c>
@@ -6095,7 +8068,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>228</v>
+        <v>879</v>
       </c>
       <c r="B12" s="0">
         <v>10036.787209302327</v>
@@ -6178,7 +8151,9 @@
       <c r="AB12" s="0">
         <v>1104.6093023255812</v>
       </c>
-      <c r="AC12" s="0"/>
+      <c r="AC12" s="0">
+        <v>379833.15279069764</v>
+      </c>
       <c r="AD12" s="0">
         <v>486699.11279069766</v>
       </c>
@@ -6512,7 +8487,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>229</v>
+        <v>880</v>
       </c>
       <c r="B13" s="0">
         <v>10259.751976744185</v>
@@ -6595,7 +8570,9 @@
       <c r="AB13" s="0">
         <v>2293.6633720930231</v>
       </c>
-      <c r="AC13" s="0"/>
+      <c r="AC13" s="0">
+        <v>213624.79534883721</v>
+      </c>
       <c r="AD13" s="0">
         <v>1737264.4290697675</v>
       </c>
@@ -6929,7 +8906,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>230</v>
+        <v>881</v>
       </c>
       <c r="B14" s="0">
         <v>8940.3930232558123</v>
@@ -7012,7 +8989,9 @@
       <c r="AB14" s="0">
         <v>1827.3093023255813</v>
       </c>
-      <c r="AC14" s="0"/>
+      <c r="AC14" s="0">
+        <v>266556.60930232552</v>
+      </c>
       <c r="AD14" s="0">
         <v>965336.88604651159</v>
       </c>
@@ -7346,7 +9325,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>231</v>
+        <v>882</v>
       </c>
       <c r="B15" s="0">
         <v>6310.2209302325582</v>
@@ -7429,7 +9408,9 @@
       <c r="AB15" s="0">
         <v>1121.5662790697675</v>
       </c>
-      <c r="AC15" s="0"/>
+      <c r="AC15" s="0">
+        <v>152191.58186046511</v>
+      </c>
       <c r="AD15" s="0">
         <v>306277.66279069765</v>
       </c>
@@ -7763,7 +9744,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>232</v>
+        <v>883</v>
       </c>
       <c r="B16" s="0">
         <v>14358.161279069767</v>
@@ -7846,7 +9827,9 @@
       <c r="AB16" s="0">
         <v>2986.032558139535</v>
       </c>
-      <c r="AC16" s="0"/>
+      <c r="AC16" s="0">
+        <v>525269.77325581387</v>
+      </c>
       <c r="AD16" s="0">
         <v>1342549.7232558136</v>
       </c>
@@ -8180,7 +10163,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>233</v>
+        <v>884</v>
       </c>
       <c r="B17" s="0">
         <v>14789.241744186051</v>
@@ -8263,7 +10246,9 @@
       <c r="AB17" s="0">
         <v>1921.1627906976744</v>
       </c>
-      <c r="AC17" s="0"/>
+      <c r="AC17" s="0">
+        <v>719164.4090116279</v>
+      </c>
       <c r="AD17" s="0">
         <v>265265.20813953487</v>
       </c>
@@ -8597,7 +10582,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>234</v>
+        <v>885</v>
       </c>
       <c r="B18" s="0">
         <v>15642.095000000001</v>
@@ -8680,7 +10665,9 @@
       <c r="AB18" s="0">
         <v>4007.5087209302328</v>
       </c>
-      <c r="AC18" s="0"/>
+      <c r="AC18" s="0">
+        <v>573929.68232558144</v>
+      </c>
       <c r="AD18" s="0">
         <v>1874214.0337209301</v>
       </c>
@@ -9014,7 +11001,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>235</v>
+        <v>886</v>
       </c>
       <c r="B19" s="0">
         <v>20063.33139534884</v>
@@ -9097,7 +11084,9 @@
       <c r="AB19" s="0">
         <v>9357.0523255813932</v>
       </c>
-      <c r="AC19" s="0"/>
+      <c r="AC19" s="0">
+        <v>922648.4061627906</v>
+      </c>
       <c r="AD19" s="0">
         <v>4614901.6976744197</v>
       </c>
@@ -9431,7 +11420,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>236</v>
+        <v>887</v>
       </c>
       <c r="B20" s="0">
         <v>10382.27418604651</v>
@@ -9514,7 +11503,9 @@
       <c r="AB20" s="0">
         <v>3012.7552325581391</v>
       </c>
-      <c r="AC20" s="0"/>
+      <c r="AC20" s="0">
+        <v>396229.32790697674</v>
+      </c>
       <c r="AD20" s="0">
         <v>3298493.5098837209</v>
       </c>
@@ -9848,7 +11839,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>237</v>
+        <v>888</v>
       </c>
       <c r="B21" s="0">
         <v>6965.5444186046507</v>
@@ -9931,7 +11922,9 @@
       <c r="AB21" s="0">
         <v>2086.8372093023258</v>
       </c>
-      <c r="AC21" s="0"/>
+      <c r="AC21" s="0">
+        <v>80431.914883720936</v>
+      </c>
       <c r="AD21" s="0">
         <v>1132731.846511628</v>
       </c>
@@ -10265,7 +12258,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>238</v>
+        <v>889</v>
       </c>
       <c r="B22" s="0">
         <v>10347.191279069768</v>
@@ -10348,7 +12341,9 @@
       <c r="AB22" s="0">
         <v>2114.6680232558138</v>
       </c>
-      <c r="AC22" s="0"/>
+      <c r="AC22" s="0">
+        <v>567548.50308139541</v>
+      </c>
       <c r="AD22" s="0">
         <v>839355.4912790698</v>
       </c>
@@ -10682,7 +12677,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>239</v>
+        <v>890</v>
       </c>
       <c r="B23" s="0">
         <v>5865.960697674419</v>
@@ -10765,7 +12760,9 @@
       <c r="AB23" s="0">
         <v>2157.7058139534884</v>
       </c>
-      <c r="AC23" s="0"/>
+      <c r="AC23" s="0">
+        <v>1.9976744186046513</v>
+      </c>
       <c r="AD23" s="0">
         <v>1255921.6372093023</v>
       </c>
@@ -11099,7 +13096,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>240</v>
+        <v>891</v>
       </c>
       <c r="B24" s="0">
         <v>11839.366511627906</v>
@@ -11182,7 +13179,9 @@
       <c r="AB24" s="0">
         <v>2841.8296511627914</v>
       </c>
-      <c r="AC24" s="0"/>
+      <c r="AC24" s="0">
+        <v>389676.81046511629</v>
+      </c>
       <c r="AD24" s="0">
         <v>1818803.7825581394</v>
       </c>
@@ -11516,7 +13515,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>241</v>
+        <v>892</v>
       </c>
       <c r="B25" s="0">
         <v>11033.495930232557</v>
@@ -11599,7 +13598,9 @@
       <c r="AB25" s="0">
         <v>2432.9523255813956</v>
       </c>
-      <c r="AC25" s="0"/>
+      <c r="AC25" s="0">
+        <v>110810.03244186047</v>
+      </c>
       <c r="AD25" s="0">
         <v>1224510.9244186047</v>
       </c>
@@ -11933,7 +13934,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>242</v>
+        <v>893</v>
       </c>
       <c r="B26" s="0">
         <v>6576.9897674418598</v>
@@ -12016,7 +14017,9 @@
       <c r="AB26" s="0">
         <v>1557.5215116279071</v>
       </c>
-      <c r="AC26" s="0"/>
+      <c r="AC26" s="0">
+        <v>138750.70000000001</v>
+      </c>
       <c r="AD26" s="0">
         <v>669831.48604651145</v>
       </c>
@@ -12350,7 +14353,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>243</v>
+        <v>894</v>
       </c>
       <c r="B27" s="0">
         <v>8265.4870930232573</v>
@@ -12433,7 +14436,9 @@
       <c r="AB27" s="0">
         <v>982.25581395348831</v>
       </c>
-      <c r="AC27" s="0"/>
+      <c r="AC27" s="0">
+        <v>64435.879999999997</v>
+      </c>
       <c r="AD27" s="0">
         <v>134645.56627906975</v>
       </c>
@@ -12767,7 +14772,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>244</v>
+        <v>895</v>
       </c>
       <c r="B28" s="0">
         <v>10413.125813953488</v>
@@ -12850,7 +14855,9 @@
       <c r="AB28" s="0">
         <v>1131.6093023255814</v>
       </c>
-      <c r="AC28" s="0"/>
+      <c r="AC28" s="0">
+        <v>345044.59720930224</v>
+      </c>
       <c r="AD28" s="0">
         <v>510723.92906976742</v>
       </c>
@@ -13184,7 +15191,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>245</v>
+        <v>896</v>
       </c>
       <c r="B29" s="0">
         <v>12029.055465116278</v>
@@ -13267,7 +15274,9 @@
       <c r="AB29" s="0">
         <v>3997.7680232558141</v>
       </c>
-      <c r="AC29" s="0"/>
+      <c r="AC29" s="0">
+        <v>321498.02174418606</v>
+      </c>
       <c r="AD29" s="0">
         <v>1448798.0720930232</v>
       </c>
@@ -13601,7 +15610,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>246</v>
+        <v>897</v>
       </c>
       <c r="B30" s="0">
         <v>20827.346395348839</v>
@@ -13684,7 +15693,9 @@
       <c r="AB30" s="0">
         <v>1284.0569767441857</v>
       </c>
-      <c r="AC30" s="0"/>
+      <c r="AC30" s="0">
+        <v>632542.09639534878</v>
+      </c>
       <c r="AD30" s="0">
         <v>795854.28372093022</v>
       </c>
@@ -14018,7 +16029,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>247</v>
+        <v>898</v>
       </c>
       <c r="B31" s="0">
         <v>11787.908953488373</v>
@@ -14101,7 +16112,9 @@
       <c r="AB31" s="0">
         <v>1522.5302325581397</v>
       </c>
-      <c r="AC31" s="0"/>
+      <c r="AC31" s="0">
+        <v>300778.29372093023</v>
+      </c>
       <c r="AD31" s="0">
         <v>849111.00813953474</v>
       </c>
@@ -14435,7 +16448,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>248</v>
+        <v>899</v>
       </c>
       <c r="B32" s="0">
         <v>5966.9760465116269</v>
@@ -14518,7 +16531,9 @@
       <c r="AB32" s="0">
         <v>1632.780232558139</v>
       </c>
-      <c r="AC32" s="0"/>
+      <c r="AC32" s="0">
+        <v>337835.04837209301</v>
+      </c>
       <c r="AD32" s="0">
         <v>1026191.576744186</v>
       </c>
@@ -14852,7 +16867,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>249</v>
+        <v>900</v>
       </c>
       <c r="B33" s="0">
         <v>10960.834186046506</v>
@@ -14935,7 +16950,9 @@
       <c r="AB33" s="0">
         <v>1112.8372093023256</v>
       </c>
-      <c r="AC33" s="0"/>
+      <c r="AC33" s="0">
+        <v>377537.53046511626</v>
+      </c>
       <c r="AD33" s="0">
         <v>424407.7197674418</v>
       </c>
@@ -15269,7 +17286,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>250</v>
+        <v>901</v>
       </c>
       <c r="B34" s="0">
         <v>7935.6267441860464</v>
@@ -15352,7 +17369,9 @@
       <c r="AB34" s="0">
         <v>1094.4203488372095</v>
       </c>
-      <c r="AC34" s="0"/>
+      <c r="AC34" s="0">
+        <v>125186.9269767442</v>
+      </c>
       <c r="AD34" s="0">
         <v>565371.81511627906</v>
       </c>
@@ -15686,7 +17705,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>251</v>
+        <v>902</v>
       </c>
       <c r="B35" s="0">
         <v>10879.149651162787</v>
@@ -15769,7 +17788,9 @@
       <c r="AB35" s="0">
         <v>1932.9674418604654</v>
       </c>
-      <c r="AC35" s="0"/>
+      <c r="AC35" s="0">
+        <v>256845.55465116279</v>
+      </c>
       <c r="AD35" s="0">
         <v>2397621.0238372092</v>
       </c>
@@ -16103,7 +18124,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>252</v>
+        <v>903</v>
       </c>
       <c r="B36" s="0">
         <v>6117.7296511627919</v>
@@ -16186,7 +18207,9 @@
       <c r="AB36" s="0">
         <v>1241.25</v>
       </c>
-      <c r="AC36" s="0"/>
+      <c r="AC36" s="0">
+        <v>107434.38906976745</v>
+      </c>
       <c r="AD36" s="0">
         <v>1045662.0761627908</v>
       </c>
@@ -16520,7 +18543,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>253</v>
+        <v>904</v>
       </c>
       <c r="B37" s="0">
         <v>9104.7019767441852</v>
@@ -16603,7 +18626,9 @@
       <c r="AB37" s="0">
         <v>2586.5936046511629</v>
       </c>
-      <c r="AC37" s="0"/>
+      <c r="AC37" s="0">
+        <v>1157659.3211627908</v>
+      </c>
       <c r="AD37" s="0">
         <v>1762495.1912790695</v>
       </c>
@@ -16937,7 +18962,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>254</v>
+        <v>905</v>
       </c>
       <c r="B38" s="0">
         <v>34510.891162790693</v>
@@ -17020,7 +19045,9 @@
       <c r="AB38" s="0">
         <v>4875.6023255813943</v>
       </c>
-      <c r="AC38" s="0"/>
+      <c r="AC38" s="0">
+        <v>552451.19389534881</v>
+      </c>
       <c r="AD38" s="0">
         <v>3030752.3517441857</v>
       </c>
@@ -17354,7 +19381,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>255</v>
+        <v>906</v>
       </c>
       <c r="B39" s="0">
         <v>8907.32430232558</v>
@@ -17437,7 +19464,9 @@
       <c r="AB39" s="0">
         <v>1002.1232558139534</v>
       </c>
-      <c r="AC39" s="0"/>
+      <c r="AC39" s="0">
+        <v>177157.81104651166</v>
+      </c>
       <c r="AD39" s="0">
         <v>638124.44651162787</v>
       </c>
@@ -17771,7 +19800,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>256</v>
+        <v>907</v>
       </c>
       <c r="B40" s="0">
         <v>4890.9627906976739</v>
@@ -17854,7 +19883,9 @@
       <c r="AB40" s="0">
         <v>1282.6488372093024</v>
       </c>
-      <c r="AC40" s="0"/>
+      <c r="AC40" s="0">
+        <v>65413.976046511627</v>
+      </c>
       <c r="AD40" s="0">
         <v>639117.31860465114</v>
       </c>
@@ -18188,7 +20219,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>257</v>
+        <v>908</v>
       </c>
       <c r="B41" s="0">
         <v>11133.246976744185</v>
@@ -18271,7 +20302,9 @@
       <c r="AB41" s="0">
         <v>1348.6023255813955</v>
       </c>
-      <c r="AC41" s="0"/>
+      <c r="AC41" s="0">
+        <v>178471.0541860465</v>
+      </c>
       <c r="AD41" s="0">
         <v>538425.92790697678</v>
       </c>
@@ -18605,7 +20638,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>258</v>
+        <v>909</v>
       </c>
       <c r="B42" s="0">
         <v>9923.1875581395343</v>
@@ -18688,7 +20721,9 @@
       <c r="AB42" s="0">
         <v>1588.1511627906978</v>
       </c>
-      <c r="AC42" s="0"/>
+      <c r="AC42" s="0">
+        <v>226002.19337209302</v>
+      </c>
       <c r="AD42" s="0">
         <v>663095.87093023269</v>
       </c>
@@ -19022,7 +21057,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>259</v>
+        <v>910</v>
       </c>
       <c r="B43" s="0">
         <v>8955.6095348837189</v>
@@ -19105,7 +21140,9 @@
       <c r="AB43" s="0">
         <v>2617.0430232558142</v>
       </c>
-      <c r="AC43" s="0"/>
+      <c r="AC43" s="0">
+        <v>547663.0110465117</v>
+      </c>
       <c r="AD43" s="0">
         <v>971385.64418604656</v>
       </c>
@@ -19439,7 +21476,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>260</v>
+        <v>911</v>
       </c>
       <c r="B44" s="0">
         <v>10308.350581395347</v>
@@ -19522,7 +21559,9 @@
       <c r="AB44" s="0">
         <v>1037.6546511627907</v>
       </c>
-      <c r="AC44" s="0"/>
+      <c r="AC44" s="0">
+        <v>407441.62813953491</v>
+      </c>
       <c r="AD44" s="0">
         <v>496282.33372093027</v>
       </c>
@@ -19856,7 +21895,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>261</v>
+        <v>912</v>
       </c>
       <c r="B45" s="0">
         <v>8744.2043023255792</v>
@@ -19939,7 +21978,9 @@
       <c r="AB45" s="0">
         <v>1246.279069767442</v>
       </c>
-      <c r="AC45" s="0"/>
+      <c r="AC45" s="0">
+        <v>676256.13418604666</v>
+      </c>
       <c r="AD45" s="0">
         <v>535113.11627906968</v>
       </c>
@@ -20273,7 +22314,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>262</v>
+        <v>913</v>
       </c>
       <c r="B46" s="0">
         <v>13497.45395348837</v>
@@ -20356,7 +22397,9 @@
       <c r="AB46" s="0">
         <v>2189.558139534884</v>
       </c>
-      <c r="AC46" s="0"/>
+      <c r="AC46" s="0">
+        <v>289408.26860465109</v>
+      </c>
       <c r="AD46" s="0">
         <v>1001021.1906976744</v>
       </c>
@@ -20690,7 +22733,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>263</v>
+        <v>914</v>
       </c>
       <c r="B47" s="0">
         <v>11545.29441860465</v>
@@ -20773,7 +22816,9 @@
       <c r="AB47" s="0">
         <v>2052.506976744186</v>
       </c>
-      <c r="AC47" s="0"/>
+      <c r="AC47" s="0">
+        <v>436320.75895348832</v>
+      </c>
       <c r="AD47" s="0">
         <v>1443311.111627907</v>
       </c>
@@ -21107,7 +23152,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>264</v>
+        <v>915</v>
       </c>
       <c r="B48" s="0">
         <v>2501.3860465116277</v>
@@ -21190,7 +23235,9 @@
       <c r="AB48" s="0">
         <v>284.3895348837209</v>
       </c>
-      <c r="AC48" s="0"/>
+      <c r="AC48" s="0">
+        <v>113005.99209302326</v>
+      </c>
       <c r="AD48" s="0">
         <v>66763.58139534884</v>
       </c>
@@ -21524,7 +23571,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>265</v>
+        <v>916</v>
       </c>
       <c r="B49" s="0">
         <v>11461.378372093021</v>
@@ -21607,7 +23654,9 @@
       <c r="AB49" s="0">
         <v>1836.2034883720933</v>
       </c>
-      <c r="AC49" s="0"/>
+      <c r="AC49" s="0">
+        <v>445497.6738372093</v>
+      </c>
       <c r="AD49" s="0">
         <v>721734.25581395347</v>
       </c>
@@ -21941,7 +23990,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>266</v>
+        <v>917</v>
       </c>
       <c r="B50" s="0">
         <v>5087.1784883720948</v>
@@ -22024,7 +24073,9 @@
       <c r="AB50" s="0">
         <v>489.87093023255824</v>
       </c>
-      <c r="AC50" s="0"/>
+      <c r="AC50" s="0">
+        <v>173536.06604651164</v>
+      </c>
       <c r="AD50" s="0">
         <v>138087.83488372093</v>
       </c>
@@ -22358,7 +24409,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>267</v>
+        <v>918</v>
       </c>
       <c r="B51" s="0">
         <v>9822.3783720930205</v>
@@ -22441,7 +24492,9 @@
       <c r="AB51" s="0">
         <v>1541.811627906977</v>
       </c>
-      <c r="AC51" s="0"/>
+      <c r="AC51" s="0">
+        <v>221526.80023255819</v>
+      </c>
       <c r="AD51" s="0">
         <v>964684.35813953483</v>
       </c>
@@ -22775,7 +24828,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>268</v>
+        <v>919</v>
       </c>
       <c r="B52" s="0">
         <v>7533.8732558139527</v>
@@ -22858,7 +24911,9 @@
       <c r="AB52" s="0">
         <v>1448.148837209302</v>
       </c>
-      <c r="AC52" s="0"/>
+      <c r="AC52" s="0">
+        <v>307655.21395348833</v>
+      </c>
       <c r="AD52" s="0">
         <v>569808.1337209302</v>
       </c>
@@ -23192,7 +25247,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>269</v>
+        <v>920</v>
       </c>
       <c r="B53" s="0">
         <v>5562.1013953488373</v>
@@ -23275,7 +25330,9 @@
       <c r="AB53" s="0">
         <v>1339.4034883720931</v>
       </c>
-      <c r="AC53" s="0"/>
+      <c r="AC53" s="0">
+        <v>273084.06744186039</v>
+      </c>
       <c r="AD53" s="0">
         <v>816792.74302325596</v>
       </c>
@@ -23609,7 +25666,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>270</v>
+        <v>921</v>
       </c>
       <c r="B54" s="0">
         <v>12066.621395348833</v>
@@ -23692,7 +25749,9 @@
       <c r="AB54" s="0">
         <v>1129.3651162790698</v>
       </c>
-      <c r="AC54" s="0"/>
+      <c r="AC54" s="0">
+        <v>454949.73883720924</v>
+      </c>
       <c r="AD54" s="0">
         <v>680034.97441860463</v>
       </c>
@@ -24026,7 +26085,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>271</v>
+        <v>922</v>
       </c>
       <c r="B55" s="0">
         <v>13951.081627906973</v>
@@ -24109,7 +26168,9 @@
       <c r="AB55" s="0">
         <v>1143.0976744186046</v>
       </c>
-      <c r="AC55" s="0"/>
+      <c r="AC55" s="0">
+        <v>409251.31406976754</v>
+      </c>
       <c r="AD55" s="0">
         <v>478493.73488372087</v>
       </c>
@@ -24443,7 +26504,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>272</v>
+        <v>923</v>
       </c>
       <c r="B56" s="0">
         <v>6247.4203488372113</v>
@@ -24526,7 +26587,9 @@
       <c r="AB56" s="0">
         <v>911.32325581395344</v>
       </c>
-      <c r="AC56" s="0"/>
+      <c r="AC56" s="0">
+        <v>192074.57360465117</v>
+      </c>
       <c r="AD56" s="0">
         <v>625822.00232558139</v>
       </c>
@@ -24860,7 +26923,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>273</v>
+        <v>924</v>
       </c>
       <c r="B57" s="0">
         <v>7518.0876744186044</v>
@@ -24943,7 +27006,9 @@
       <c r="AB57" s="0">
         <v>1264.6552325581397</v>
       </c>
-      <c r="AC57" s="0"/>
+      <c r="AC57" s="0">
+        <v>292525.72453488375</v>
+      </c>
       <c r="AD57" s="0">
         <v>740633.93372093025</v>
       </c>
@@ -25277,7 +27342,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>274</v>
+        <v>925</v>
       </c>
       <c r="B58" s="0">
         <v>13823.514186046512</v>
@@ -25360,7 +27425,9 @@
       <c r="AB58" s="0">
         <v>4479.400581395349</v>
       </c>
-      <c r="AC58" s="0"/>
+      <c r="AC58" s="0">
+        <v>593002.18686046521</v>
+      </c>
       <c r="AD58" s="0">
         <v>1827786.7453488372</v>
       </c>
@@ -25694,7 +27761,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>275</v>
+        <v>926</v>
       </c>
       <c r="B59" s="0">
         <v>8188.0606976744184</v>
@@ -25777,7 +27844,9 @@
       <c r="AB59" s="0">
         <v>1004.2825581395349</v>
       </c>
-      <c r="AC59" s="0"/>
+      <c r="AC59" s="0">
+        <v>292681.76267441857</v>
+      </c>
       <c r="AD59" s="0">
         <v>643377.39767441864</v>
       </c>
@@ -26111,7 +28180,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>276</v>
+        <v>927</v>
       </c>
       <c r="B60" s="0">
         <v>8145.6246511627915</v>
@@ -26194,7 +28263,9 @@
       <c r="AB60" s="0">
         <v>1011.7418604651164</v>
       </c>
-      <c r="AC60" s="0"/>
+      <c r="AC60" s="0">
+        <v>83172.88302325581</v>
+      </c>
       <c r="AD60" s="0">
         <v>408673.62441860465</v>
       </c>
@@ -26528,7 +28599,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>277</v>
+        <v>928</v>
       </c>
       <c r="B61" s="0">
         <v>11766.445348837211</v>
@@ -26611,7 +28682,9 @@
       <c r="AB61" s="0">
         <v>1469.3523255813952</v>
       </c>
-      <c r="AC61" s="0"/>
+      <c r="AC61" s="0">
+        <v>393247.90744186047</v>
+      </c>
       <c r="AD61" s="0">
         <v>466933.48604651162</v>
       </c>
@@ -26945,7 +29018,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>278</v>
+        <v>929</v>
       </c>
       <c r="B62" s="0">
         <v>9712.9293023255832</v>
@@ -27028,7 +29101,9 @@
       <c r="AB62" s="0">
         <v>2022.3093023255817</v>
       </c>
-      <c r="AC62" s="0"/>
+      <c r="AC62" s="0">
+        <v>320892.56976744189</v>
+      </c>
       <c r="AD62" s="0">
         <v>1319469.1825581393</v>
       </c>
@@ -27362,7 +29437,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>279</v>
+        <v>930</v>
       </c>
       <c r="B63" s="0">
         <v>7897.4220930232568</v>
@@ -27445,7 +29520,9 @@
       <c r="AB63" s="0">
         <v>1517.5744186046509</v>
       </c>
-      <c r="AC63" s="0"/>
+      <c r="AC63" s="0">
+        <v>41625.883953488374</v>
+      </c>
       <c r="AD63" s="0">
         <v>545496.86860465119</v>
       </c>
@@ -27779,7 +29856,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>280</v>
+        <v>931</v>
       </c>
       <c r="B64" s="0">
         <v>7350.3122093023258</v>
@@ -27862,7 +29939,9 @@
       <c r="AB64" s="0">
         <v>462.94069767441863</v>
       </c>
-      <c r="AC64" s="0"/>
+      <c r="AC64" s="0">
+        <v>27002.773139534882</v>
+      </c>
       <c r="AD64" s="0">
         <v>86101.96744186047</v>
       </c>
@@ -28196,7 +30275,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>281</v>
+        <v>932</v>
       </c>
       <c r="B65" s="0">
         <v>10475.372558139532</v>
@@ -28279,7 +30358,9 @@
       <c r="AB65" s="0">
         <v>1084.456976744186</v>
       </c>
-      <c r="AC65" s="0"/>
+      <c r="AC65" s="0">
+        <v>276317.72232558136</v>
+      </c>
       <c r="AD65" s="0">
         <v>589103.19651162787</v>
       </c>
@@ -28613,7 +30694,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>282</v>
+        <v>933</v>
       </c>
       <c r="B66" s="0">
         <v>8389.3860465116286</v>
@@ -28696,7 +30777,9 @@
       <c r="AB66" s="0">
         <v>1999.8418604651163</v>
       </c>
-      <c r="AC66" s="0"/>
+      <c r="AC66" s="0">
+        <v>143113.49395348839</v>
+      </c>
       <c r="AD66" s="0">
         <v>778826.65348837199</v>
       </c>
@@ -29030,7 +31113,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>283</v>
+        <v>934</v>
       </c>
       <c r="B67" s="0">
         <v>9735.372558139532</v>
@@ -29113,7 +31196,9 @@
       <c r="AB67" s="0">
         <v>1359.31511627907</v>
       </c>
-      <c r="AC67" s="0"/>
+      <c r="AC67" s="0">
+        <v>338732.23488372087</v>
+      </c>
       <c r="AD67" s="0">
         <v>666727.52441860468</v>
       </c>
@@ -29447,7 +31532,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>284</v>
+        <v>935</v>
       </c>
       <c r="B68" s="0">
         <v>13648.423720930234</v>
@@ -29530,7 +31615,9 @@
       <c r="AB68" s="0">
         <v>1750.9813953488374</v>
       </c>
-      <c r="AC68" s="0"/>
+      <c r="AC68" s="0">
+        <v>147992.85290697674</v>
+      </c>
       <c r="AD68" s="0">
         <v>986975.94651162799</v>
       </c>
@@ -29864,7 +31951,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>285</v>
+        <v>936</v>
       </c>
       <c r="B69" s="0">
         <v>6146.117674418605</v>
@@ -29947,7 +32034,9 @@
       <c r="AB69" s="0">
         <v>1010.5813953488373</v>
       </c>
-      <c r="AC69" s="0"/>
+      <c r="AC69" s="0">
+        <v>181729.42127906979</v>
+      </c>
       <c r="AD69" s="0">
         <v>1175145.3267441862</v>
       </c>
@@ -30281,7 +32370,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>286</v>
+        <v>937</v>
       </c>
       <c r="B70" s="0">
         <v>6408.5545348837204</v>
@@ -30364,7 +32453,9 @@
       <c r="AB70" s="0">
         <v>1208.1482558139537</v>
       </c>
-      <c r="AC70" s="0"/>
+      <c r="AC70" s="0">
+        <v>81012.284186046512</v>
+      </c>
       <c r="AD70" s="0">
         <v>810117.91569767427</v>
       </c>
@@ -30698,7 +32789,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>287</v>
+        <v>938</v>
       </c>
       <c r="B71" s="0">
         <v>9705.079069767442</v>
@@ -30781,7 +32872,9 @@
       <c r="AB71" s="0">
         <v>1751.7354651162789</v>
       </c>
-      <c r="AC71" s="0"/>
+      <c r="AC71" s="0">
+        <v>244037.77465116282</v>
+      </c>
       <c r="AD71" s="0">
         <v>1072501.3697674416</v>
       </c>
@@ -31115,7 +33208,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>288</v>
+        <v>939</v>
       </c>
       <c r="B72" s="0">
         <v>7567.3319767441853</v>
@@ -31198,7 +33291,9 @@
       <c r="AB72" s="0">
         <v>808.16395348837193</v>
       </c>
-      <c r="AC72" s="0"/>
+      <c r="AC72" s="0">
+        <v>484172.77732558141</v>
+      </c>
       <c r="AD72" s="0">
         <v>257197.5877906977</v>
       </c>
@@ -31532,7 +33627,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>289</v>
+        <v>940</v>
       </c>
       <c r="B73" s="0">
         <v>10264.191162790696</v>
@@ -31615,7 +33710,9 @@
       <c r="AB73" s="0">
         <v>1348.6604651162791</v>
       </c>
-      <c r="AC73" s="0"/>
+      <c r="AC73" s="0">
+        <v>12471.121395348837</v>
+      </c>
       <c r="AD73" s="0">
         <v>602724.91860465123</v>
       </c>
@@ -31949,7 +34046,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>290</v>
+        <v>941</v>
       </c>
       <c r="B74" s="0">
         <v>11310.201395348835</v>
@@ -32032,7 +34129,9 @@
       <c r="AB74" s="0">
         <v>1305.5662790697677</v>
       </c>
-      <c r="AC74" s="0"/>
+      <c r="AC74" s="0">
+        <v>341277.96941860463</v>
+      </c>
       <c r="AD74" s="0">
         <v>720708.37906976743</v>
       </c>
@@ -32366,7 +34465,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>291</v>
+        <v>942</v>
       </c>
       <c r="B75" s="0">
         <v>9975.631162790698</v>
@@ -32449,7 +34548,9 @@
       <c r="AB75" s="0">
         <v>1762.8651162790695</v>
       </c>
-      <c r="AC75" s="0"/>
+      <c r="AC75" s="0">
+        <v>301992.62616279064</v>
+      </c>
       <c r="AD75" s="0">
         <v>683028.46627906966</v>
       </c>
@@ -32783,7 +34884,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>292</v>
+        <v>943</v>
       </c>
       <c r="B76" s="0">
         <v>8360.3574418604658</v>
@@ -32866,7 +34967,9 @@
       <c r="AB76" s="0">
         <v>1891.7627906976745</v>
       </c>
-      <c r="AC76" s="0"/>
+      <c r="AC76" s="0">
+        <v>233036.45837209301</v>
+      </c>
       <c r="AD76" s="0">
         <v>850595.86744186049</v>
       </c>
@@ -33200,7 +35303,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>293</v>
+        <v>944</v>
       </c>
       <c r="B77" s="0">
         <v>14341.970232558137</v>
@@ -33283,7 +35386,9 @@
       <c r="AB77" s="0">
         <v>1463.7337209302327</v>
       </c>
-      <c r="AC77" s="0"/>
+      <c r="AC77" s="0">
+        <v>454940.28744186042</v>
+      </c>
       <c r="AD77" s="0">
         <v>1027110.9732558139</v>
       </c>
@@ -33617,7 +35722,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>294</v>
+        <v>945</v>
       </c>
       <c r="B78" s="0">
         <v>8864.7743023255807</v>
@@ -33700,7 +35805,9 @@
       <c r="AB78" s="0">
         <v>1514.8750000000002</v>
       </c>
-      <c r="AC78" s="0"/>
+      <c r="AC78" s="0">
+        <v>248126.09116279069</v>
+      </c>
       <c r="AD78" s="0">
         <v>623018.90813953499</v>
       </c>
@@ -34034,7 +36141,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>295</v>
+        <v>946</v>
       </c>
       <c r="B79" s="0">
         <v>13898.812441860466</v>
@@ -34117,7 +36224,9 @@
       <c r="AB79" s="0">
         <v>3283.4418604651155</v>
       </c>
-      <c r="AC79" s="0"/>
+      <c r="AC79" s="0">
+        <v>231987.77674418609</v>
+      </c>
       <c r="AD79" s="0">
         <v>1394146.5999999999</v>
       </c>
